--- a/biology/Zoologie/Helicops_(genre)/Helicops_(genre).xlsx
+++ b/biology/Zoologie/Helicops_(genre)/Helicops_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Helicops est un genre de serpents de la famille des Dipsadidae[1].
+Helicops est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 décembre 2022)[2] :
-Helicops acangussu Moraes-da-Silva et al., 2022[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 décembre 2022) :
+Helicops acangussu Moraes-da-Silva et al., 2022
 Helicops angulatus (Linnaeus, 1758)
 Helicops apiaka Kawashita-Ribeiro et al., 2013
-Helicops boitata Moraes-da-silva et al., 2019[4]
+Helicops boitata Moraes-da-silva et al., 2019
 Helicops carinicaudus (Wied-Neuwied, 1825)
 Helicops danieli Amaral, 1938
 Helicops gomesi Amaral, 1921
@@ -557,10 +573,10 @@
 Helicops infrataeniatus Jan, 1865
 Helicops leopardinus (Schlegel, 1837)
 Helicops modestus Günther, 1861
-Helicops nentur Costa et al., 2016[5]
+Helicops nentur Costa et al., 2016
 Helicops pastazae Shreve, 1934
 Helicops petersi Rossman, 1976
-Helicops phantasma Moraes-da-Silva et al., 2021[6]
+Helicops phantasma Moraes-da-Silva et al., 2021
 Helicops polylepis Günther, 1861
 Helicops scalaris Jan, 1865
 Helicops tapajonicus Da Frota, 2005
@@ -593,7 +609,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wagler, 1828 : Descriptiones et Icones Amphibiorum. Part I, Plates I-XIII, Stuttgartiae, Tubingae, Monachii, J.G. Cottae.</t>
         </is>
